--- a/ch2/mtcars.xlsx
+++ b/ch2/mtcars.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\src\root\dbook\ch2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Src\root\dbook\ch2\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9444"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9444" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet2" sheetId="2" r:id="rId1"/>
@@ -497,11 +497,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="745402984"/>
-        <c:axId val="624510736"/>
+        <c:axId val="741964136"/>
+        <c:axId val="741965704"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="745402984"/>
+        <c:axId val="741964136"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -544,7 +544,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624510736"/>
+        <c:crossAx val="741965704"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -552,7 +552,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="624510736"/>
+        <c:axId val="741965704"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -603,7 +603,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="745402984"/>
+        <c:crossAx val="741964136"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1027,11 +1027,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="226837520"/>
-        <c:axId val="226835952"/>
+        <c:axId val="741966096"/>
+        <c:axId val="741969232"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="226837520"/>
+        <c:axId val="741966096"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1088,12 +1088,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226835952"/>
+        <c:crossAx val="741969232"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="226835952"/>
+        <c:axId val="741969232"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1150,7 +1150,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="226837520"/>
+        <c:crossAx val="741966096"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1539,11 +1539,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="624509168"/>
-        <c:axId val="624511128"/>
+        <c:axId val="741966488"/>
+        <c:axId val="741973544"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="624509168"/>
+        <c:axId val="741966488"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1600,12 +1600,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624511128"/>
+        <c:crossAx val="741973544"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="624511128"/>
+        <c:axId val="741973544"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1662,7 +1662,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="624509168"/>
+        <c:crossAx val="741966488"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -4418,8 +4418,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A3:E8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J25" sqref="J25"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H24" sqref="H24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4530,8 +4530,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="G10" sqref="A2:M33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
